--- a/src/test/resources/org/xlbean/xlscript/Test_scriptOrder.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_scriptOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD8F28-8537-4E5C-ACBD-36066242C1EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813300D4-055E-4D17-BDF8-977702D543E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39204" yWindow="0" windowWidth="21924" windowHeight="8652" firstSheet="1" activeTab="2" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="1344" yWindow="-108" windowWidth="29484" windowHeight="17496" firstSheet="1" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
     <sheet name="firstSheet_wo_scriptOrder" sheetId="1" r:id="rId1"/>
@@ -123,18 +123,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list#value?toBean=value</t>
-  </si>
-  <si>
     <t>value1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>value3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list#key?toBean=key</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -480,6 +473,12 @@
       <t>, value1, value2, value3, value4, value5, value6</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list#key?toMap=key</t>
+  </si>
+  <si>
+    <t>list#value?toMap=value</t>
   </si>
 </sst>
 </file>
@@ -875,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -889,24 +888,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -930,13 +929,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -944,10 +943,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -955,18 +954,18 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -977,42 +976,42 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAFB78-2A2A-4CBA-B81C-5FEFBBA0573F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1041,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1085,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810AB0D9-B152-49D3-81E8-A5F04E8D5F3D}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1103,167 +1102,167 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/org/xlbean/xlscript/Test_scriptOrder.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_scriptOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813300D4-055E-4D17-BDF8-977702D543E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09964FB6-4D2B-4024-B487-72B56F5D9439}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="-108" windowWidth="29484" windowHeight="17496" firstSheet="1" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="1380" yWindow="-108" windowWidth="29448" windowHeight="17496" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
     <sheet name="firstSheet_wo_scriptOrder" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>table#~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,6 +475,10 @@
   </si>
   <si>
     <t>list#value?toMap=value</t>
+  </si>
+  <si>
+    <t>table?ignoreNullBlank=false#~</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB2253C-CCB8-45E9-9DEE-AFFA88924DB6}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -888,54 +888,54 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -954,21 +954,21 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -976,42 +976,42 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAFB78-2A2A-4CBA-B81C-5FEFBBA0573F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1040,37 +1040,37 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1102,167 +1102,167 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
